--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE173A-9CE9-47F7-B741-00C01C49DFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48602ECA-85DF-44BE-AC16-FC6E98BB717B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="80">
   <si>
     <t>缺少文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
   </si>
   <si>
     <t>01-07里程碑清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ocean产品线文档规范跟踪情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -778,16 +774,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,38 +828,17 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +847,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,6 +879,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -916,70 +912,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1830917</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="582083" cy="268407"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6448298C-F41A-43CC-80BB-FE5FA817328A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2465917" y="3450167"/>
-          <a:ext cx="582083" cy="268407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>序号</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>1771650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="582083" cy="268407"/>
@@ -1429,627 +1364,1894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:EU32"/>
+  <dimension ref="A1:EJ23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="13" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="4.08203125" customWidth="1"/>
-    <col min="13" max="13" width="7.9140625" customWidth="1"/>
-    <col min="14" max="14" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.9140625" customWidth="1"/>
+    <col min="3" max="3" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+    <row r="1" spans="1:140" ht="145" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="CG1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="CH1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="CI1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="CJ1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="CM1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="CN1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="CO1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="CP1" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="3:151" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
+    <row r="2" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9"/>
+      <c r="C2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="33"/>
+      <c r="CG2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH2" s="35"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="39"/>
     </row>
-    <row r="5" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M5" s="12"/>
+    <row r="3" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="41"/>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="41"/>
+      <c r="CC3" s="41"/>
+      <c r="CD3" s="41"/>
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="41"/>
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="41"/>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="41"/>
+      <c r="CL3" s="41"/>
+      <c r="CM3" s="41"/>
+      <c r="CN3" s="41"/>
+      <c r="CO3" s="41"/>
+      <c r="CP3" s="43"/>
     </row>
-    <row r="6" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="8"/>
+    <row r="4" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="13"/>
+      <c r="CR4" s="13"/>
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="13"/>
+      <c r="CU4" s="13"/>
+      <c r="CV4" s="13"/>
+      <c r="CW4" s="13"/>
+      <c r="CX4" s="13"/>
+      <c r="CY4" s="13"/>
+      <c r="CZ4" s="13"/>
+      <c r="DA4" s="13"/>
+      <c r="DB4" s="13"/>
+      <c r="DC4" s="13"/>
+      <c r="DD4" s="13"/>
+      <c r="DE4" s="13"/>
+      <c r="DF4" s="13"/>
+      <c r="DG4" s="13"/>
+      <c r="DH4" s="13"/>
+      <c r="DI4" s="13"/>
+      <c r="DJ4" s="13"/>
+      <c r="DK4" s="13"/>
+      <c r="DL4" s="13"/>
+      <c r="DM4" s="13"/>
+      <c r="DN4" s="13"/>
+      <c r="DO4" s="13"/>
+      <c r="DP4" s="13"/>
+      <c r="DQ4" s="13"/>
+      <c r="DR4" s="13"/>
+      <c r="DS4" s="13"/>
+      <c r="DT4" s="13"/>
+      <c r="DU4" s="13"/>
+      <c r="DV4" s="13"/>
+      <c r="DW4" s="13"/>
+      <c r="DX4" s="13"/>
+      <c r="DY4" s="13"/>
+      <c r="DZ4" s="13"/>
+      <c r="EA4" s="13"/>
+      <c r="EB4" s="13"/>
+      <c r="EC4" s="13"/>
+      <c r="ED4" s="13"/>
+      <c r="EE4" s="13"/>
+      <c r="EF4" s="13"/>
+      <c r="EG4" s="13"/>
+      <c r="EH4" s="13"/>
+      <c r="EI4" s="13"/>
+      <c r="EJ4" s="13"/>
     </row>
-    <row r="7" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="3"/>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="BB7" s="8"/>
+    <row r="5" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="17"/>
+      <c r="CQ5" s="13"/>
+      <c r="CR5" s="13"/>
+      <c r="CS5" s="13"/>
+      <c r="CT5" s="13"/>
+      <c r="CU5" s="13"/>
+      <c r="CV5" s="13"/>
+      <c r="CW5" s="13"/>
+      <c r="CX5" s="13"/>
+      <c r="CY5" s="13"/>
+      <c r="CZ5" s="13"/>
+      <c r="DA5" s="13"/>
+      <c r="DB5" s="13"/>
+      <c r="DC5" s="13"/>
+      <c r="DD5" s="13"/>
+      <c r="DE5" s="13"/>
+      <c r="DF5" s="13"/>
+      <c r="DG5" s="13"/>
+      <c r="DH5" s="13"/>
+      <c r="DI5" s="13"/>
+      <c r="DJ5" s="13"/>
+      <c r="DK5" s="13"/>
+      <c r="DL5" s="13"/>
+      <c r="DM5" s="13"/>
+      <c r="DN5" s="13"/>
+      <c r="DO5" s="13"/>
+      <c r="DP5" s="13"/>
+      <c r="DQ5" s="13"/>
+      <c r="DR5" s="13"/>
+      <c r="DS5" s="13"/>
+      <c r="DT5" s="13"/>
+      <c r="DU5" s="13"/>
+      <c r="DV5" s="13"/>
+      <c r="DW5" s="13"/>
+      <c r="DX5" s="13"/>
+      <c r="DY5" s="13"/>
+      <c r="DZ5" s="13"/>
+      <c r="EA5" s="13"/>
+      <c r="EB5" s="13"/>
+      <c r="EC5" s="13"/>
+      <c r="ED5" s="13"/>
+      <c r="EE5" s="13"/>
+      <c r="EF5" s="13"/>
+      <c r="EG5" s="13"/>
+      <c r="EH5" s="13"/>
+      <c r="EI5" s="13"/>
+      <c r="EJ5" s="13"/>
     </row>
-    <row r="8" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="4"/>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB8" s="8"/>
+    <row r="6" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13"/>
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13"/>
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13"/>
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
     </row>
-    <row r="9" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="8"/>
+    <row r="7" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="17"/>
+      <c r="CQ7" s="13"/>
+      <c r="CR7" s="13"/>
+      <c r="CS7" s="13"/>
+      <c r="CT7" s="13"/>
+      <c r="CU7" s="13"/>
+      <c r="CV7" s="13"/>
+      <c r="CW7" s="13"/>
+      <c r="CX7" s="13"/>
+      <c r="CY7" s="13"/>
+      <c r="CZ7" s="13"/>
+      <c r="DA7" s="13"/>
+      <c r="DB7" s="13"/>
+      <c r="DC7" s="13"/>
+      <c r="DD7" s="13"/>
+      <c r="DE7" s="13"/>
+      <c r="DF7" s="13"/>
+      <c r="DG7" s="13"/>
+      <c r="DH7" s="13"/>
+      <c r="DI7" s="13"/>
+      <c r="DJ7" s="13"/>
+      <c r="DK7" s="13"/>
+      <c r="DL7" s="13"/>
+      <c r="DM7" s="13"/>
+      <c r="DN7" s="13"/>
+      <c r="DO7" s="13"/>
+      <c r="DP7" s="13"/>
+      <c r="DQ7" s="13"/>
+      <c r="DR7" s="13"/>
+      <c r="DS7" s="13"/>
+      <c r="DT7" s="13"/>
+      <c r="DU7" s="13"/>
+      <c r="DV7" s="13"/>
+      <c r="DW7" s="13"/>
+      <c r="DX7" s="13"/>
+      <c r="DY7" s="13"/>
+      <c r="DZ7" s="13"/>
+      <c r="EA7" s="13"/>
+      <c r="EB7" s="13"/>
+      <c r="EC7" s="13"/>
+      <c r="ED7" s="13"/>
+      <c r="EE7" s="13"/>
+      <c r="EF7" s="13"/>
+      <c r="EG7" s="13"/>
+      <c r="EH7" s="13"/>
+      <c r="EI7" s="13"/>
+      <c r="EJ7" s="13"/>
+    </row>
+    <row r="8" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="17"/>
+      <c r="CQ8" s="13"/>
+      <c r="CR8" s="13"/>
+      <c r="CS8" s="13"/>
+      <c r="CT8" s="13"/>
+      <c r="CU8" s="13"/>
+      <c r="CV8" s="13"/>
+      <c r="CW8" s="13"/>
+      <c r="CX8" s="13"/>
+      <c r="CY8" s="13"/>
+      <c r="CZ8" s="13"/>
+      <c r="DA8" s="13"/>
+      <c r="DB8" s="13"/>
+      <c r="DC8" s="13"/>
+      <c r="DD8" s="13"/>
+      <c r="DE8" s="13"/>
+      <c r="DF8" s="13"/>
+      <c r="DG8" s="13"/>
+      <c r="DH8" s="13"/>
+      <c r="DI8" s="13"/>
+      <c r="DJ8" s="13"/>
+      <c r="DK8" s="13"/>
+      <c r="DL8" s="13"/>
+      <c r="DM8" s="13"/>
+      <c r="DN8" s="13"/>
+      <c r="DO8" s="13"/>
+      <c r="DP8" s="13"/>
+      <c r="DQ8" s="13"/>
+      <c r="DR8" s="13"/>
+      <c r="DS8" s="13"/>
+      <c r="DT8" s="13"/>
+      <c r="DU8" s="13"/>
+      <c r="DV8" s="13"/>
+      <c r="DW8" s="13"/>
+      <c r="DX8" s="13"/>
+      <c r="DY8" s="13"/>
+      <c r="DZ8" s="13"/>
+      <c r="EA8" s="13"/>
+      <c r="EB8" s="13"/>
+      <c r="EC8" s="13"/>
+      <c r="ED8" s="13"/>
+      <c r="EE8" s="13"/>
+      <c r="EF8" s="13"/>
+      <c r="EG8" s="13"/>
+      <c r="EH8" s="13"/>
+      <c r="EI8" s="13"/>
+      <c r="EJ8" s="13"/>
+    </row>
+    <row r="9" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="BB9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="17"/>
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13"/>
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13"/>
+      <c r="CW9" s="13"/>
+      <c r="CX9" s="13"/>
+      <c r="CY9" s="13"/>
+      <c r="CZ9" s="13"/>
+      <c r="DA9" s="13"/>
+      <c r="DB9" s="13"/>
+      <c r="DC9" s="13"/>
+      <c r="DD9" s="13"/>
+      <c r="DE9" s="13"/>
+      <c r="DF9" s="13"/>
+      <c r="DG9" s="13"/>
+      <c r="DH9" s="13"/>
+      <c r="DI9" s="13"/>
+      <c r="DJ9" s="13"/>
+      <c r="DK9" s="13"/>
+      <c r="DL9" s="13"/>
+      <c r="DM9" s="13"/>
+      <c r="DN9" s="13"/>
+      <c r="DO9" s="13"/>
+      <c r="DP9" s="13"/>
+      <c r="DQ9" s="13"/>
+      <c r="DR9" s="13"/>
+      <c r="DS9" s="13"/>
+      <c r="DT9" s="13"/>
+      <c r="DU9" s="13"/>
+      <c r="DV9" s="13"/>
+      <c r="DW9" s="13"/>
+      <c r="DX9" s="13"/>
+      <c r="DY9" s="13"/>
+      <c r="DZ9" s="13"/>
+      <c r="EA9" s="13"/>
+      <c r="EB9" s="13"/>
+      <c r="EC9" s="13"/>
+      <c r="ED9" s="13"/>
+      <c r="EE9" s="13"/>
+      <c r="EF9" s="13"/>
+      <c r="EG9" s="13"/>
+      <c r="EH9" s="13"/>
+      <c r="EI9" s="13"/>
+      <c r="EJ9" s="13"/>
     </row>
-    <row r="10" spans="3:151" ht="145" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
-      <c r="J10" s="8"/>
-      <c r="N10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="BL10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BP10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BT10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BV10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="BW10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BX10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="CF10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="CG10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="CH10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="CI10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="CJ10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="CK10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="CM10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="CN10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="CO10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="CQ10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="CR10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="CS10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="CT10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="CU10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="CV10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="CW10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="CX10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="CZ10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="DA10" s="11" t="s">
-        <v>73</v>
-      </c>
+    <row r="10" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="17"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="13"/>
+      <c r="DK10" s="13"/>
+      <c r="DL10" s="13"/>
+      <c r="DM10" s="13"/>
+      <c r="DN10" s="13"/>
+      <c r="DO10" s="13"/>
+      <c r="DP10" s="13"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="13"/>
+      <c r="DS10" s="13"/>
+      <c r="DT10" s="13"/>
+      <c r="DU10" s="13"/>
+      <c r="DV10" s="13"/>
+      <c r="DW10" s="13"/>
+      <c r="DX10" s="13"/>
+      <c r="DY10" s="13"/>
+      <c r="DZ10" s="13"/>
+      <c r="EA10" s="13"/>
+      <c r="EB10" s="13"/>
+      <c r="EC10" s="13"/>
+      <c r="ED10" s="13"/>
+      <c r="EE10" s="13"/>
+      <c r="EF10" s="13"/>
+      <c r="EG10" s="13"/>
+      <c r="EH10" s="13"/>
+      <c r="EI10" s="13"/>
+      <c r="EJ10" s="13"/>
     </row>
-    <row r="11" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M11" s="9"/>
-      <c r="N11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="27"/>
-      <c r="BL11" s="27"/>
-      <c r="BM11" s="27"/>
-      <c r="BN11" s="28"/>
-      <c r="BO11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP11" s="30"/>
-      <c r="BQ11" s="30"/>
-      <c r="BR11" s="30"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="34"/>
-      <c r="BX11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="36"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="CF11" s="27"/>
-      <c r="CG11" s="27"/>
-      <c r="CH11" s="27"/>
-      <c r="CI11" s="27"/>
-      <c r="CJ11" s="27"/>
-      <c r="CK11" s="28"/>
-      <c r="CL11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="CM11" s="30"/>
-      <c r="CN11" s="30"/>
-      <c r="CO11" s="30"/>
-      <c r="CP11" s="30"/>
-      <c r="CQ11" s="31"/>
-      <c r="CR11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="CS11" s="33"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="CV11" s="36"/>
-      <c r="CW11" s="36"/>
-      <c r="CX11" s="36"/>
-      <c r="CY11" s="36"/>
-      <c r="CZ11" s="36"/>
-      <c r="DA11" s="37"/>
+    <row r="11" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="17"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
+      <c r="CU11" s="13"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="13"/>
+      <c r="DG11" s="13"/>
+      <c r="DH11" s="13"/>
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="13"/>
+      <c r="DK11" s="13"/>
+      <c r="DL11" s="13"/>
+      <c r="DM11" s="13"/>
+      <c r="DN11" s="13"/>
+      <c r="DO11" s="13"/>
+      <c r="DP11" s="13"/>
+      <c r="DQ11" s="13"/>
+      <c r="DR11" s="13"/>
+      <c r="DS11" s="13"/>
+      <c r="DT11" s="13"/>
+      <c r="DU11" s="13"/>
+      <c r="DV11" s="13"/>
+      <c r="DW11" s="13"/>
+      <c r="DX11" s="13"/>
+      <c r="DY11" s="13"/>
+      <c r="DZ11" s="13"/>
+      <c r="EA11" s="13"/>
+      <c r="EB11" s="13"/>
+      <c r="EC11" s="13"/>
+      <c r="ED11" s="13"/>
+      <c r="EE11" s="13"/>
+      <c r="EF11" s="13"/>
+      <c r="EG11" s="13"/>
+      <c r="EH11" s="13"/>
+      <c r="EI11" s="13"/>
+      <c r="EJ11" s="13"/>
     </row>
-    <row r="12" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M12" s="15"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="23"/>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="23"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
-      <c r="BO12" s="23"/>
-      <c r="BP12" s="23"/>
-      <c r="BQ12" s="23"/>
-      <c r="BR12" s="23"/>
-      <c r="BS12" s="23"/>
-      <c r="BT12" s="23"/>
-      <c r="BU12" s="23"/>
-      <c r="BV12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12" s="23"/>
-      <c r="BY12" s="23"/>
-      <c r="BZ12" s="23"/>
-      <c r="CA12" s="23"/>
-      <c r="CB12" s="23"/>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="24"/>
-      <c r="CE12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="CF12" s="23"/>
-      <c r="CG12" s="23"/>
-      <c r="CH12" s="23"/>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="23"/>
-      <c r="CO12" s="23"/>
-      <c r="CP12" s="23"/>
-      <c r="CQ12" s="23"/>
-      <c r="CR12" s="23"/>
-      <c r="CS12" s="23"/>
-      <c r="CT12" s="23"/>
-      <c r="CU12" s="23"/>
-      <c r="CV12" s="23"/>
-      <c r="CW12" s="23"/>
-      <c r="CX12" s="23"/>
-      <c r="CY12" s="23"/>
-      <c r="CZ12" s="23"/>
-      <c r="DA12" s="25"/>
+    <row r="12" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="21"/>
+      <c r="CI12" s="21"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="5"/>
+      <c r="CP12" s="17"/>
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="13"/>
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="13"/>
+      <c r="CU12" s="13"/>
+      <c r="CV12" s="13"/>
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="13"/>
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13"/>
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="13"/>
+      <c r="DC12" s="13"/>
+      <c r="DD12" s="13"/>
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="13"/>
+      <c r="DG12" s="13"/>
+      <c r="DH12" s="13"/>
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="13"/>
+      <c r="DK12" s="13"/>
+      <c r="DL12" s="13"/>
+      <c r="DM12" s="13"/>
+      <c r="DN12" s="13"/>
+      <c r="DO12" s="13"/>
+      <c r="DP12" s="13"/>
+      <c r="DQ12" s="13"/>
+      <c r="DR12" s="13"/>
+      <c r="DS12" s="13"/>
+      <c r="DT12" s="13"/>
+      <c r="DU12" s="13"/>
+      <c r="DV12" s="13"/>
+      <c r="DW12" s="13"/>
+      <c r="DX12" s="13"/>
+      <c r="DY12" s="13"/>
+      <c r="DZ12" s="13"/>
+      <c r="EA12" s="13"/>
+      <c r="EB12" s="13"/>
+      <c r="EC12" s="13"/>
+      <c r="ED12" s="13"/>
+      <c r="EE12" s="13"/>
+      <c r="EF12" s="13"/>
+      <c r="EG12" s="13"/>
+      <c r="EH12" s="13"/>
+      <c r="EI12" s="13"/>
+      <c r="EJ12" s="13"/>
     </row>
-    <row r="13" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="2"/>
+    <row r="13" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
+      <c r="AM13" s="2"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
+      <c r="AP13" s="2"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
+      <c r="AS13" s="2"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="2"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -2064,7 +3266,7 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
+      <c r="BJ13" s="7"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
       <c r="BM13" s="1"/>
@@ -2095,19 +3297,19 @@
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
-      <c r="CV13" s="1"/>
-      <c r="CW13" s="1"/>
-      <c r="CX13" s="1"/>
-      <c r="CY13" s="1"/>
-      <c r="CZ13" s="5"/>
-      <c r="DA13" s="16"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="17"/>
+      <c r="CQ13" s="13"/>
+      <c r="CR13" s="13"/>
+      <c r="CS13" s="13"/>
+      <c r="CT13" s="13"/>
+      <c r="CU13" s="13"/>
+      <c r="CV13" s="13"/>
+      <c r="CW13" s="13"/>
+      <c r="CX13" s="13"/>
+      <c r="CY13" s="13"/>
+      <c r="CZ13" s="13"/>
+      <c r="DA13" s="13"/>
       <c r="DB13" s="13"/>
       <c r="DC13" s="13"/>
       <c r="DD13" s="13"/>
@@ -2143,25 +3345,25 @@
       <c r="EH13" s="13"/>
       <c r="EI13" s="13"/>
       <c r="EJ13" s="13"/>
-      <c r="EK13" s="13"/>
-      <c r="EL13" s="13"/>
-      <c r="EM13" s="13"/>
-      <c r="EN13" s="13"/>
-      <c r="EO13" s="13"/>
-      <c r="EP13" s="13"/>
-      <c r="EQ13" s="13"/>
-      <c r="ER13" s="13"/>
-      <c r="ES13" s="13"/>
-      <c r="ET13" s="13"/>
-      <c r="EU13" s="13"/>
     </row>
-    <row r="14" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
-      </c>
+    <row r="14" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2176,10 +3378,10 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="3"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -2187,30 +3389,30 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="3"/>
+      <c r="AM14" s="2"/>
       <c r="AN14" s="1"/>
-      <c r="AO14" s="2"/>
+      <c r="AO14" s="1"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="1"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="2"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
+      <c r="AU14" s="2"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="3"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="1"/>
+      <c r="BB14" s="2"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="2"/>
+      <c r="BD14" s="3"/>
       <c r="BE14" s="1"/>
-      <c r="BF14" s="2"/>
+      <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
+      <c r="BJ14" s="7"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
@@ -2221,7 +3423,7 @@
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
-      <c r="BU14" s="7"/>
+      <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
       <c r="BX14" s="1"/>
@@ -2241,19 +3443,19 @@
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
-      <c r="CW14" s="1"/>
-      <c r="CX14" s="1"/>
-      <c r="CY14" s="1"/>
-      <c r="CZ14" s="5"/>
-      <c r="DA14" s="17"/>
+      <c r="CO14" s="5"/>
+      <c r="CP14" s="17"/>
+      <c r="CQ14" s="13"/>
+      <c r="CR14" s="13"/>
+      <c r="CS14" s="13"/>
+      <c r="CT14" s="13"/>
+      <c r="CU14" s="13"/>
+      <c r="CV14" s="13"/>
+      <c r="CW14" s="13"/>
+      <c r="CX14" s="13"/>
+      <c r="CY14" s="13"/>
+      <c r="CZ14" s="13"/>
+      <c r="DA14" s="13"/>
       <c r="DB14" s="13"/>
       <c r="DC14" s="13"/>
       <c r="DD14" s="13"/>
@@ -2289,25 +3491,25 @@
       <c r="EH14" s="13"/>
       <c r="EI14" s="13"/>
       <c r="EJ14" s="13"/>
-      <c r="EK14" s="13"/>
-      <c r="EL14" s="13"/>
-      <c r="EM14" s="13"/>
-      <c r="EN14" s="13"/>
-      <c r="EO14" s="13"/>
-      <c r="EP14" s="13"/>
-      <c r="EQ14" s="13"/>
-      <c r="ER14" s="13"/>
-      <c r="ES14" s="13"/>
-      <c r="ET14" s="13"/>
-      <c r="EU14" s="13"/>
     </row>
-    <row r="15" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>4</v>
-      </c>
+    <row r="15" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2322,10 +3524,10 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -2333,15 +3535,15 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
+      <c r="AM15" s="2"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
+      <c r="AP15" s="2"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
+      <c r="AS15" s="2"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
+      <c r="AU15" s="2"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -2356,7 +3558,7 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
+      <c r="BJ15" s="7"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
       <c r="BM15" s="1"/>
@@ -2387,19 +3589,19 @@
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-      <c r="CU15" s="1"/>
-      <c r="CV15" s="1"/>
-      <c r="CW15" s="1"/>
-      <c r="CX15" s="1"/>
-      <c r="CY15" s="1"/>
-      <c r="CZ15" s="5"/>
-      <c r="DA15" s="17"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="17"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="13"/>
+      <c r="CS15" s="13"/>
+      <c r="CT15" s="13"/>
+      <c r="CU15" s="13"/>
+      <c r="CV15" s="13"/>
+      <c r="CW15" s="13"/>
+      <c r="CX15" s="13"/>
+      <c r="CY15" s="13"/>
+      <c r="CZ15" s="13"/>
+      <c r="DA15" s="13"/>
       <c r="DB15" s="13"/>
       <c r="DC15" s="13"/>
       <c r="DD15" s="13"/>
@@ -2435,25 +3637,25 @@
       <c r="EH15" s="13"/>
       <c r="EI15" s="13"/>
       <c r="EJ15" s="13"/>
-      <c r="EK15" s="13"/>
-      <c r="EL15" s="13"/>
-      <c r="EM15" s="13"/>
-      <c r="EN15" s="13"/>
-      <c r="EO15" s="13"/>
-      <c r="EP15" s="13"/>
-      <c r="EQ15" s="13"/>
-      <c r="ER15" s="13"/>
-      <c r="ES15" s="13"/>
-      <c r="ET15" s="13"/>
-      <c r="EU15" s="13"/>
     </row>
-    <row r="16" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2467,56 +3669,56 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="3"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="3"/>
+      <c r="AM16" s="2"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="3"/>
       <c r="AQ16" s="1"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="2"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
+      <c r="AU16" s="2"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="3"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="1"/>
+      <c r="BB16" s="2"/>
       <c r="BC16" s="1"/>
-      <c r="BD16" s="2"/>
+      <c r="BD16" s="3"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="2"/>
+      <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="3"/>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
       <c r="BT16" s="1"/>
-      <c r="BU16" s="2"/>
+      <c r="BU16" s="1"/>
       <c r="BV16" s="1"/>
       <c r="BW16" s="1"/>
-      <c r="BX16" s="2"/>
+      <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
       <c r="CA16" s="1"/>
@@ -2533,19 +3735,19 @@
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
-      <c r="CV16" s="1"/>
-      <c r="CW16" s="1"/>
-      <c r="CX16" s="1"/>
-      <c r="CY16" s="1"/>
-      <c r="CZ16" s="5"/>
-      <c r="DA16" s="17"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="17"/>
+      <c r="CQ16" s="13"/>
+      <c r="CR16" s="13"/>
+      <c r="CS16" s="13"/>
+      <c r="CT16" s="13"/>
+      <c r="CU16" s="13"/>
+      <c r="CV16" s="13"/>
+      <c r="CW16" s="13"/>
+      <c r="CX16" s="13"/>
+      <c r="CY16" s="13"/>
+      <c r="CZ16" s="13"/>
+      <c r="DA16" s="13"/>
       <c r="DB16" s="13"/>
       <c r="DC16" s="13"/>
       <c r="DD16" s="13"/>
@@ -2581,25 +3783,25 @@
       <c r="EH16" s="13"/>
       <c r="EI16" s="13"/>
       <c r="EJ16" s="13"/>
-      <c r="EK16" s="13"/>
-      <c r="EL16" s="13"/>
-      <c r="EM16" s="13"/>
-      <c r="EN16" s="13"/>
-      <c r="EO16" s="13"/>
-      <c r="EP16" s="13"/>
-      <c r="EQ16" s="13"/>
-      <c r="ER16" s="13"/>
-      <c r="ES16" s="13"/>
-      <c r="ET16" s="13"/>
-      <c r="EU16" s="13"/>
     </row>
-    <row r="17" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>6</v>
-      </c>
+    <row r="17" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2614,10 +3816,10 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AB17" s="3"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2625,30 +3827,30 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="3"/>
+      <c r="AM17" s="2"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="3"/>
+      <c r="AO17" s="1"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="1"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="2"/>
       <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
+      <c r="AU17" s="2"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
-      <c r="AX17" s="2"/>
+      <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
-      <c r="BA17" s="2"/>
+      <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
-      <c r="BD17" s="3"/>
+      <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
-      <c r="BF17" s="2"/>
+      <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
+      <c r="BJ17" s="7"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
       <c r="BM17" s="1"/>
@@ -2659,10 +3861,10 @@
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
       <c r="BT17" s="1"/>
-      <c r="BU17" s="7"/>
+      <c r="BU17" s="1"/>
       <c r="BV17" s="1"/>
       <c r="BW17" s="1"/>
-      <c r="BX17" s="7"/>
+      <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
       <c r="CA17" s="1"/>
@@ -2679,19 +3881,19 @@
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
-      <c r="CY17" s="1"/>
-      <c r="CZ17" s="5"/>
-      <c r="DA17" s="17"/>
+      <c r="CO17" s="5"/>
+      <c r="CP17" s="17"/>
+      <c r="CQ17" s="13"/>
+      <c r="CR17" s="13"/>
+      <c r="CS17" s="13"/>
+      <c r="CT17" s="13"/>
+      <c r="CU17" s="13"/>
+      <c r="CV17" s="13"/>
+      <c r="CW17" s="13"/>
+      <c r="CX17" s="13"/>
+      <c r="CY17" s="13"/>
+      <c r="CZ17" s="13"/>
+      <c r="DA17" s="13"/>
       <c r="DB17" s="13"/>
       <c r="DC17" s="13"/>
       <c r="DD17" s="13"/>
@@ -2727,25 +3929,25 @@
       <c r="EH17" s="13"/>
       <c r="EI17" s="13"/>
       <c r="EJ17" s="13"/>
-      <c r="EK17" s="13"/>
-      <c r="EL17" s="13"/>
-      <c r="EM17" s="13"/>
-      <c r="EN17" s="13"/>
-      <c r="EO17" s="13"/>
-      <c r="EP17" s="13"/>
-      <c r="EQ17" s="13"/>
-      <c r="ER17" s="13"/>
-      <c r="ES17" s="13"/>
-      <c r="ET17" s="13"/>
-      <c r="EU17" s="13"/>
     </row>
-    <row r="18" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2760,10 +3962,10 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AB18" s="2"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2771,44 +3973,44 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="3"/>
+      <c r="AM18" s="2"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="3"/>
+      <c r="AO18" s="1"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="1"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="2"/>
       <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
+      <c r="AU18" s="2"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="2"/>
+      <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
-      <c r="BA18" s="2"/>
+      <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
-      <c r="BD18" s="2"/>
+      <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
-      <c r="BF18" s="2"/>
+      <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
-      <c r="BJ18" s="3"/>
+      <c r="BJ18" s="7"/>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="2"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
-      <c r="BO18" s="2"/>
+      <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
       <c r="BT18" s="1"/>
-      <c r="BU18" s="2"/>
+      <c r="BU18" s="1"/>
       <c r="BV18" s="1"/>
       <c r="BW18" s="1"/>
-      <c r="BX18" s="2"/>
+      <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
       <c r="BZ18" s="1"/>
       <c r="CA18" s="1"/>
@@ -2825,19 +4027,19 @@
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
-      <c r="CU18" s="1"/>
-      <c r="CV18" s="1"/>
-      <c r="CW18" s="1"/>
-      <c r="CX18" s="1"/>
-      <c r="CY18" s="1"/>
-      <c r="CZ18" s="5"/>
-      <c r="DA18" s="17"/>
+      <c r="CO18" s="5"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="13"/>
+      <c r="CR18" s="13"/>
+      <c r="CS18" s="13"/>
+      <c r="CT18" s="13"/>
+      <c r="CU18" s="13"/>
+      <c r="CV18" s="13"/>
+      <c r="CW18" s="13"/>
+      <c r="CX18" s="13"/>
+      <c r="CY18" s="13"/>
+      <c r="CZ18" s="13"/>
+      <c r="DA18" s="13"/>
       <c r="DB18" s="13"/>
       <c r="DC18" s="13"/>
       <c r="DD18" s="13"/>
@@ -2873,25 +4075,25 @@
       <c r="EH18" s="13"/>
       <c r="EI18" s="13"/>
       <c r="EJ18" s="13"/>
-      <c r="EK18" s="13"/>
-      <c r="EL18" s="13"/>
-      <c r="EM18" s="13"/>
-      <c r="EN18" s="13"/>
-      <c r="EO18" s="13"/>
-      <c r="EP18" s="13"/>
-      <c r="EQ18" s="13"/>
-      <c r="ER18" s="13"/>
-      <c r="ES18" s="13"/>
-      <c r="ET18" s="13"/>
-      <c r="EU18" s="13"/>
     </row>
-    <row r="19" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>8</v>
-      </c>
+    <row r="19" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2906,10 +4108,10 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
+      <c r="AB19" s="3"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2917,44 +4119,44 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="3"/>
+      <c r="AM19" s="2"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="3"/>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="1"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="2"/>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
+      <c r="AU19" s="2"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
-      <c r="AX19" s="2"/>
+      <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
-      <c r="BA19" s="2"/>
+      <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
-      <c r="BD19" s="3"/>
+      <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="2"/>
+      <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
-      <c r="BJ19" s="2"/>
+      <c r="BJ19" s="7"/>
       <c r="BK19" s="1"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
-      <c r="BO19" s="2"/>
+      <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
       <c r="BT19" s="1"/>
-      <c r="BU19" s="2"/>
+      <c r="BU19" s="1"/>
       <c r="BV19" s="1"/>
       <c r="BW19" s="1"/>
-      <c r="BX19" s="2"/>
+      <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
       <c r="CA19" s="1"/>
@@ -2971,19 +4173,19 @@
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
-      <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="5"/>
-      <c r="DA19" s="17"/>
+      <c r="CO19" s="5"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="13"/>
+      <c r="CR19" s="13"/>
+      <c r="CS19" s="13"/>
+      <c r="CT19" s="13"/>
+      <c r="CU19" s="13"/>
+      <c r="CV19" s="13"/>
+      <c r="CW19" s="13"/>
+      <c r="CX19" s="13"/>
+      <c r="CY19" s="13"/>
+      <c r="CZ19" s="13"/>
+      <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
       <c r="DC19" s="13"/>
       <c r="DD19" s="13"/>
@@ -3019,25 +4221,25 @@
       <c r="EH19" s="13"/>
       <c r="EI19" s="13"/>
       <c r="EJ19" s="13"/>
-      <c r="EK19" s="13"/>
-      <c r="EL19" s="13"/>
-      <c r="EM19" s="13"/>
-      <c r="EN19" s="13"/>
-      <c r="EO19" s="13"/>
-      <c r="EP19" s="13"/>
-      <c r="EQ19" s="13"/>
-      <c r="ER19" s="13"/>
-      <c r="ES19" s="13"/>
-      <c r="ET19" s="13"/>
-      <c r="EU19" s="13"/>
     </row>
-    <row r="20" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>29</v>
-      </c>
+    <row r="20" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3052,10 +4254,10 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="AB20" s="3"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -3063,30 +4265,30 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="3"/>
+      <c r="AM20" s="2"/>
       <c r="AN20" s="1"/>
-      <c r="AO20" s="3"/>
+      <c r="AO20" s="1"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="2"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
+      <c r="AU20" s="2"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-      <c r="AX20" s="2"/>
+      <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
-      <c r="BA20" s="2"/>
+      <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
-      <c r="BD20" s="2"/>
+      <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
-      <c r="BF20" s="2"/>
+      <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
+      <c r="BJ20" s="7"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
       <c r="BM20" s="1"/>
@@ -3097,10 +4299,10 @@
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
       <c r="BT20" s="1"/>
-      <c r="BU20" s="7"/>
+      <c r="BU20" s="1"/>
       <c r="BV20" s="1"/>
       <c r="BW20" s="1"/>
-      <c r="BX20" s="7"/>
+      <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
       <c r="CA20" s="1"/>
@@ -3117,19 +4319,19 @@
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
-      <c r="CT20" s="1"/>
-      <c r="CU20" s="1"/>
-      <c r="CV20" s="1"/>
-      <c r="CW20" s="1"/>
-      <c r="CX20" s="1"/>
-      <c r="CY20" s="1"/>
-      <c r="CZ20" s="5"/>
-      <c r="DA20" s="17"/>
+      <c r="CO20" s="5"/>
+      <c r="CP20" s="17"/>
+      <c r="CQ20" s="13"/>
+      <c r="CR20" s="13"/>
+      <c r="CS20" s="13"/>
+      <c r="CT20" s="13"/>
+      <c r="CU20" s="13"/>
+      <c r="CV20" s="13"/>
+      <c r="CW20" s="13"/>
+      <c r="CX20" s="13"/>
+      <c r="CY20" s="13"/>
+      <c r="CZ20" s="13"/>
+      <c r="DA20" s="13"/>
       <c r="DB20" s="13"/>
       <c r="DC20" s="13"/>
       <c r="DD20" s="13"/>
@@ -3165,25 +4367,25 @@
       <c r="EH20" s="13"/>
       <c r="EI20" s="13"/>
       <c r="EJ20" s="13"/>
-      <c r="EK20" s="13"/>
-      <c r="EL20" s="13"/>
-      <c r="EM20" s="13"/>
-      <c r="EN20" s="13"/>
-      <c r="EO20" s="13"/>
-      <c r="EP20" s="13"/>
-      <c r="EQ20" s="13"/>
-      <c r="ER20" s="13"/>
-      <c r="ES20" s="13"/>
-      <c r="ET20" s="13"/>
-      <c r="EU20" s="13"/>
     </row>
-    <row r="21" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="21" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3198,10 +4400,10 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="2"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -3209,73 +4411,73 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="3"/>
+      <c r="AM21" s="2"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="3"/>
+      <c r="AO21" s="1"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
+      <c r="AS21" s="2"/>
       <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
+      <c r="AU21" s="2"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
-      <c r="AX21" s="2"/>
+      <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
-      <c r="BA21" s="2"/>
+      <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
-      <c r="BD21" s="2"/>
+      <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
-      <c r="BF21" s="2"/>
+      <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
-      <c r="BJ21" s="2"/>
+      <c r="BJ21" s="7"/>
       <c r="BK21" s="1"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
-      <c r="BO21" s="2"/>
+      <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
       <c r="BT21" s="1"/>
-      <c r="BU21" s="2"/>
+      <c r="BU21" s="1"/>
       <c r="BV21" s="1"/>
       <c r="BW21" s="1"/>
-      <c r="BX21" s="2"/>
+      <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
       <c r="BZ21" s="1"/>
       <c r="CA21" s="1"/>
       <c r="CB21" s="1"/>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
-      <c r="CE21" s="2"/>
+      <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
       <c r="CI21" s="1"/>
-      <c r="CJ21" s="2"/>
+      <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="2"/>
-      <c r="CQ21" s="21"/>
-      <c r="CR21" s="2"/>
-      <c r="CS21" s="21"/>
-      <c r="CT21" s="21"/>
-      <c r="CU21" s="2"/>
-      <c r="CV21" s="21"/>
-      <c r="CW21" s="21"/>
-      <c r="CX21" s="1"/>
-      <c r="CY21" s="1"/>
-      <c r="CZ21" s="5"/>
-      <c r="DA21" s="17"/>
+      <c r="CO21" s="5"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="13"/>
+      <c r="CR21" s="13"/>
+      <c r="CS21" s="13"/>
+      <c r="CT21" s="13"/>
+      <c r="CU21" s="13"/>
+      <c r="CV21" s="13"/>
+      <c r="CW21" s="13"/>
+      <c r="CX21" s="13"/>
+      <c r="CY21" s="13"/>
+      <c r="CZ21" s="13"/>
+      <c r="DA21" s="13"/>
       <c r="DB21" s="13"/>
       <c r="DC21" s="13"/>
       <c r="DD21" s="13"/>
@@ -3311,25 +4513,25 @@
       <c r="EH21" s="13"/>
       <c r="EI21" s="13"/>
       <c r="EJ21" s="13"/>
-      <c r="EK21" s="13"/>
-      <c r="EL21" s="13"/>
-      <c r="EM21" s="13"/>
-      <c r="EN21" s="13"/>
-      <c r="EO21" s="13"/>
-      <c r="EP21" s="13"/>
-      <c r="EQ21" s="13"/>
-      <c r="ER21" s="13"/>
-      <c r="ES21" s="13"/>
-      <c r="ET21" s="13"/>
-      <c r="EU21" s="13"/>
     </row>
-    <row r="22" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3344,10 +4546,10 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
+      <c r="AB22" s="3"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -3357,28 +4559,28 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="2"/>
+      <c r="AO22" s="1"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
+      <c r="AS22" s="2"/>
       <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
+      <c r="AU22" s="2"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
-      <c r="AX22" s="2"/>
+      <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
-      <c r="BA22" s="2"/>
+      <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
-      <c r="BD22" s="2"/>
+      <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
-      <c r="BF22" s="2"/>
+      <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
+      <c r="BJ22" s="7"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
@@ -3389,7 +4591,7 @@
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
       <c r="BT22" s="1"/>
-      <c r="BU22" s="7"/>
+      <c r="BU22" s="1"/>
       <c r="BV22" s="1"/>
       <c r="BW22" s="1"/>
       <c r="BX22" s="1"/>
@@ -3409,19 +4611,19 @@
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
-      <c r="CV22" s="1"/>
-      <c r="CW22" s="1"/>
-      <c r="CX22" s="1"/>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="5"/>
-      <c r="DA22" s="17"/>
+      <c r="CO22" s="5"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="13"/>
+      <c r="CR22" s="13"/>
+      <c r="CS22" s="13"/>
+      <c r="CT22" s="13"/>
+      <c r="CU22" s="13"/>
+      <c r="CV22" s="13"/>
+      <c r="CW22" s="13"/>
+      <c r="CX22" s="13"/>
+      <c r="CY22" s="13"/>
+      <c r="CZ22" s="13"/>
+      <c r="DA22" s="13"/>
       <c r="DB22" s="13"/>
       <c r="DC22" s="13"/>
       <c r="DD22" s="13"/>
@@ -3457,25 +4659,25 @@
       <c r="EH22" s="13"/>
       <c r="EI22" s="13"/>
       <c r="EJ22" s="13"/>
-      <c r="EK22" s="13"/>
-      <c r="EL22" s="13"/>
-      <c r="EM22" s="13"/>
-      <c r="EN22" s="13"/>
-      <c r="EO22" s="13"/>
-      <c r="EP22" s="13"/>
-      <c r="EQ22" s="13"/>
-      <c r="ER22" s="13"/>
-      <c r="ES22" s="13"/>
-      <c r="ET22" s="13"/>
-      <c r="EU22" s="13"/>
     </row>
-    <row r="23" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>79</v>
-      </c>
+    <row r="23" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3490,10 +4692,10 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="AB23" s="2"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -3501,41 +4703,41 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="3"/>
+      <c r="AM23" s="2"/>
       <c r="AN23" s="1"/>
-      <c r="AO23" s="3"/>
+      <c r="AO23" s="1"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
+      <c r="AS23" s="2"/>
       <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
+      <c r="AU23" s="2"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
-      <c r="AX23" s="2"/>
+      <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
-      <c r="BA23" s="2"/>
+      <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
-      <c r="BD23" s="2"/>
+      <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
-      <c r="BF23" s="2"/>
+      <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
-      <c r="BJ23" s="3"/>
+      <c r="BJ23" s="7"/>
       <c r="BK23" s="1"/>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
-      <c r="BO23" s="3"/>
+      <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
       <c r="BT23" s="1"/>
-      <c r="BU23" s="7"/>
+      <c r="BU23" s="1"/>
       <c r="BV23" s="1"/>
       <c r="BW23" s="1"/>
       <c r="BX23" s="1"/>
@@ -3555,19 +4757,19 @@
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
-      <c r="CU23" s="1"/>
-      <c r="CV23" s="1"/>
-      <c r="CW23" s="1"/>
-      <c r="CX23" s="1"/>
-      <c r="CY23" s="1"/>
-      <c r="CZ23" s="5"/>
-      <c r="DA23" s="17"/>
+      <c r="CO23" s="5"/>
+      <c r="CP23" s="18"/>
+      <c r="CQ23" s="13"/>
+      <c r="CR23" s="13"/>
+      <c r="CS23" s="13"/>
+      <c r="CT23" s="13"/>
+      <c r="CU23" s="13"/>
+      <c r="CV23" s="13"/>
+      <c r="CW23" s="13"/>
+      <c r="CX23" s="13"/>
+      <c r="CY23" s="13"/>
+      <c r="CZ23" s="13"/>
+      <c r="DA23" s="13"/>
       <c r="DB23" s="13"/>
       <c r="DC23" s="13"/>
       <c r="DD23" s="13"/>
@@ -3603,1355 +4805,29 @@
       <c r="EH23" s="13"/>
       <c r="EI23" s="13"/>
       <c r="EJ23" s="13"/>
-      <c r="EK23" s="13"/>
-      <c r="EL23" s="13"/>
-      <c r="EM23" s="13"/>
-      <c r="EN23" s="13"/>
-      <c r="EO23" s="13"/>
-      <c r="EP23" s="13"/>
-      <c r="EQ23" s="13"/>
-      <c r="ER23" s="13"/>
-      <c r="ES23" s="13"/>
-      <c r="ET23" s="13"/>
-      <c r="EU23" s="13"/>
-    </row>
-    <row r="24" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
-      <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-      <c r="CI24" s="1"/>
-      <c r="CJ24" s="1"/>
-      <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
-      <c r="CV24" s="1"/>
-      <c r="CW24" s="1"/>
-      <c r="CX24" s="1"/>
-      <c r="CY24" s="1"/>
-      <c r="CZ24" s="5"/>
-      <c r="DA24" s="17"/>
-      <c r="DB24" s="13"/>
-      <c r="DC24" s="13"/>
-      <c r="DD24" s="13"/>
-      <c r="DE24" s="13"/>
-      <c r="DF24" s="13"/>
-      <c r="DG24" s="13"/>
-      <c r="DH24" s="13"/>
-      <c r="DI24" s="13"/>
-      <c r="DJ24" s="13"/>
-      <c r="DK24" s="13"/>
-      <c r="DL24" s="13"/>
-      <c r="DM24" s="13"/>
-      <c r="DN24" s="13"/>
-      <c r="DO24" s="13"/>
-      <c r="DP24" s="13"/>
-      <c r="DQ24" s="13"/>
-      <c r="DR24" s="13"/>
-      <c r="DS24" s="13"/>
-      <c r="DT24" s="13"/>
-      <c r="DU24" s="13"/>
-      <c r="DV24" s="13"/>
-      <c r="DW24" s="13"/>
-      <c r="DX24" s="13"/>
-      <c r="DY24" s="13"/>
-      <c r="DZ24" s="13"/>
-      <c r="EA24" s="13"/>
-      <c r="EB24" s="13"/>
-      <c r="EC24" s="13"/>
-      <c r="ED24" s="13"/>
-      <c r="EE24" s="13"/>
-      <c r="EF24" s="13"/>
-      <c r="EG24" s="13"/>
-      <c r="EH24" s="13"/>
-      <c r="EI24" s="13"/>
-      <c r="EJ24" s="13"/>
-      <c r="EK24" s="13"/>
-      <c r="EL24" s="13"/>
-      <c r="EM24" s="13"/>
-      <c r="EN24" s="13"/>
-      <c r="EO24" s="13"/>
-      <c r="EP24" s="13"/>
-      <c r="EQ24" s="13"/>
-      <c r="ER24" s="13"/>
-      <c r="ES24" s="13"/>
-      <c r="ET24" s="13"/>
-      <c r="EU24" s="13"/>
-    </row>
-    <row r="25" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="1"/>
-      <c r="BW25" s="1"/>
-      <c r="BX25" s="3"/>
-      <c r="BY25" s="3"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="3"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
-      <c r="CI25" s="1"/>
-      <c r="CJ25" s="1"/>
-      <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
-      <c r="CV25" s="1"/>
-      <c r="CW25" s="1"/>
-      <c r="CX25" s="1"/>
-      <c r="CY25" s="1"/>
-      <c r="CZ25" s="5"/>
-      <c r="DA25" s="17"/>
-      <c r="DB25" s="13"/>
-      <c r="DC25" s="13"/>
-      <c r="DD25" s="13"/>
-      <c r="DE25" s="13"/>
-      <c r="DF25" s="13"/>
-      <c r="DG25" s="13"/>
-      <c r="DH25" s="13"/>
-      <c r="DI25" s="13"/>
-      <c r="DJ25" s="13"/>
-      <c r="DK25" s="13"/>
-      <c r="DL25" s="13"/>
-      <c r="DM25" s="13"/>
-      <c r="DN25" s="13"/>
-      <c r="DO25" s="13"/>
-      <c r="DP25" s="13"/>
-      <c r="DQ25" s="13"/>
-      <c r="DR25" s="13"/>
-      <c r="DS25" s="13"/>
-      <c r="DT25" s="13"/>
-      <c r="DU25" s="13"/>
-      <c r="DV25" s="13"/>
-      <c r="DW25" s="13"/>
-      <c r="DX25" s="13"/>
-      <c r="DY25" s="13"/>
-      <c r="DZ25" s="13"/>
-      <c r="EA25" s="13"/>
-      <c r="EB25" s="13"/>
-      <c r="EC25" s="13"/>
-      <c r="ED25" s="13"/>
-      <c r="EE25" s="13"/>
-      <c r="EF25" s="13"/>
-      <c r="EG25" s="13"/>
-      <c r="EH25" s="13"/>
-      <c r="EI25" s="13"/>
-      <c r="EJ25" s="13"/>
-      <c r="EK25" s="13"/>
-      <c r="EL25" s="13"/>
-      <c r="EM25" s="13"/>
-      <c r="EN25" s="13"/>
-      <c r="EO25" s="13"/>
-      <c r="EP25" s="13"/>
-      <c r="EQ25" s="13"/>
-      <c r="ER25" s="13"/>
-      <c r="ES25" s="13"/>
-      <c r="ET25" s="13"/>
-      <c r="EU25" s="13"/>
-    </row>
-    <row r="26" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="7"/>
-      <c r="BV26" s="1"/>
-      <c r="BW26" s="1"/>
-      <c r="BX26" s="1"/>
-      <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
-      <c r="CI26" s="1"/>
-      <c r="CJ26" s="1"/>
-      <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
-      <c r="CT26" s="1"/>
-      <c r="CU26" s="1"/>
-      <c r="CV26" s="1"/>
-      <c r="CW26" s="1"/>
-      <c r="CX26" s="1"/>
-      <c r="CY26" s="1"/>
-      <c r="CZ26" s="5"/>
-      <c r="DA26" s="17"/>
-      <c r="DB26" s="13"/>
-      <c r="DC26" s="13"/>
-      <c r="DD26" s="13"/>
-      <c r="DE26" s="13"/>
-      <c r="DF26" s="13"/>
-      <c r="DG26" s="13"/>
-      <c r="DH26" s="13"/>
-      <c r="DI26" s="13"/>
-      <c r="DJ26" s="13"/>
-      <c r="DK26" s="13"/>
-      <c r="DL26" s="13"/>
-      <c r="DM26" s="13"/>
-      <c r="DN26" s="13"/>
-      <c r="DO26" s="13"/>
-      <c r="DP26" s="13"/>
-      <c r="DQ26" s="13"/>
-      <c r="DR26" s="13"/>
-      <c r="DS26" s="13"/>
-      <c r="DT26" s="13"/>
-      <c r="DU26" s="13"/>
-      <c r="DV26" s="13"/>
-      <c r="DW26" s="13"/>
-      <c r="DX26" s="13"/>
-      <c r="DY26" s="13"/>
-      <c r="DZ26" s="13"/>
-      <c r="EA26" s="13"/>
-      <c r="EB26" s="13"/>
-      <c r="EC26" s="13"/>
-      <c r="ED26" s="13"/>
-      <c r="EE26" s="13"/>
-      <c r="EF26" s="13"/>
-      <c r="EG26" s="13"/>
-      <c r="EH26" s="13"/>
-      <c r="EI26" s="13"/>
-      <c r="EJ26" s="13"/>
-      <c r="EK26" s="13"/>
-      <c r="EL26" s="13"/>
-      <c r="EM26" s="13"/>
-      <c r="EN26" s="13"/>
-      <c r="EO26" s="13"/>
-      <c r="EP26" s="13"/>
-      <c r="EQ26" s="13"/>
-      <c r="ER26" s="13"/>
-      <c r="ES26" s="13"/>
-      <c r="ET26" s="13"/>
-      <c r="EU26" s="13"/>
-    </row>
-    <row r="27" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L27" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="7"/>
-      <c r="BV27" s="1"/>
-      <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
-      <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
-      <c r="CD27" s="1"/>
-      <c r="CE27" s="1"/>
-      <c r="CF27" s="1"/>
-      <c r="CG27" s="1"/>
-      <c r="CH27" s="1"/>
-      <c r="CI27" s="1"/>
-      <c r="CJ27" s="1"/>
-      <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
-      <c r="CT27" s="1"/>
-      <c r="CU27" s="1"/>
-      <c r="CV27" s="1"/>
-      <c r="CW27" s="1"/>
-      <c r="CX27" s="1"/>
-      <c r="CY27" s="1"/>
-      <c r="CZ27" s="5"/>
-      <c r="DA27" s="17"/>
-      <c r="DB27" s="13"/>
-      <c r="DC27" s="13"/>
-      <c r="DD27" s="13"/>
-      <c r="DE27" s="13"/>
-      <c r="DF27" s="13"/>
-      <c r="DG27" s="13"/>
-      <c r="DH27" s="13"/>
-      <c r="DI27" s="13"/>
-      <c r="DJ27" s="13"/>
-      <c r="DK27" s="13"/>
-      <c r="DL27" s="13"/>
-      <c r="DM27" s="13"/>
-      <c r="DN27" s="13"/>
-      <c r="DO27" s="13"/>
-      <c r="DP27" s="13"/>
-      <c r="DQ27" s="13"/>
-      <c r="DR27" s="13"/>
-      <c r="DS27" s="13"/>
-      <c r="DT27" s="13"/>
-      <c r="DU27" s="13"/>
-      <c r="DV27" s="13"/>
-      <c r="DW27" s="13"/>
-      <c r="DX27" s="13"/>
-      <c r="DY27" s="13"/>
-      <c r="DZ27" s="13"/>
-      <c r="EA27" s="13"/>
-      <c r="EB27" s="13"/>
-      <c r="EC27" s="13"/>
-      <c r="ED27" s="13"/>
-      <c r="EE27" s="13"/>
-      <c r="EF27" s="13"/>
-      <c r="EG27" s="13"/>
-      <c r="EH27" s="13"/>
-      <c r="EI27" s="13"/>
-      <c r="EJ27" s="13"/>
-      <c r="EK27" s="13"/>
-      <c r="EL27" s="13"/>
-      <c r="EM27" s="13"/>
-      <c r="EN27" s="13"/>
-      <c r="EO27" s="13"/>
-      <c r="EP27" s="13"/>
-      <c r="EQ27" s="13"/>
-      <c r="ER27" s="13"/>
-      <c r="ES27" s="13"/>
-      <c r="ET27" s="13"/>
-      <c r="EU27" s="13"/>
-    </row>
-    <row r="28" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
-      <c r="BQ28" s="1"/>
-      <c r="BR28" s="1"/>
-      <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
-      <c r="BU28" s="7"/>
-      <c r="BV28" s="1"/>
-      <c r="BW28" s="1"/>
-      <c r="BX28" s="1"/>
-      <c r="BY28" s="1"/>
-      <c r="BZ28" s="1"/>
-      <c r="CA28" s="1"/>
-      <c r="CB28" s="1"/>
-      <c r="CC28" s="1"/>
-      <c r="CD28" s="1"/>
-      <c r="CE28" s="1"/>
-      <c r="CF28" s="1"/>
-      <c r="CG28" s="1"/>
-      <c r="CH28" s="1"/>
-      <c r="CI28" s="1"/>
-      <c r="CJ28" s="1"/>
-      <c r="CK28" s="1"/>
-      <c r="CL28" s="1"/>
-      <c r="CM28" s="1"/>
-      <c r="CN28" s="1"/>
-      <c r="CO28" s="1"/>
-      <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
-      <c r="CR28" s="1"/>
-      <c r="CS28" s="1"/>
-      <c r="CT28" s="1"/>
-      <c r="CU28" s="1"/>
-      <c r="CV28" s="1"/>
-      <c r="CW28" s="1"/>
-      <c r="CX28" s="1"/>
-      <c r="CY28" s="1"/>
-      <c r="CZ28" s="5"/>
-      <c r="DA28" s="17"/>
-      <c r="DB28" s="13"/>
-      <c r="DC28" s="13"/>
-      <c r="DD28" s="13"/>
-      <c r="DE28" s="13"/>
-      <c r="DF28" s="13"/>
-      <c r="DG28" s="13"/>
-      <c r="DH28" s="13"/>
-      <c r="DI28" s="13"/>
-      <c r="DJ28" s="13"/>
-      <c r="DK28" s="13"/>
-      <c r="DL28" s="13"/>
-      <c r="DM28" s="13"/>
-      <c r="DN28" s="13"/>
-      <c r="DO28" s="13"/>
-      <c r="DP28" s="13"/>
-      <c r="DQ28" s="13"/>
-      <c r="DR28" s="13"/>
-      <c r="DS28" s="13"/>
-      <c r="DT28" s="13"/>
-      <c r="DU28" s="13"/>
-      <c r="DV28" s="13"/>
-      <c r="DW28" s="13"/>
-      <c r="DX28" s="13"/>
-      <c r="DY28" s="13"/>
-      <c r="DZ28" s="13"/>
-      <c r="EA28" s="13"/>
-      <c r="EB28" s="13"/>
-      <c r="EC28" s="13"/>
-      <c r="ED28" s="13"/>
-      <c r="EE28" s="13"/>
-      <c r="EF28" s="13"/>
-      <c r="EG28" s="13"/>
-      <c r="EH28" s="13"/>
-      <c r="EI28" s="13"/>
-      <c r="EJ28" s="13"/>
-      <c r="EK28" s="13"/>
-      <c r="EL28" s="13"/>
-      <c r="EM28" s="13"/>
-      <c r="EN28" s="13"/>
-      <c r="EO28" s="13"/>
-      <c r="EP28" s="13"/>
-      <c r="EQ28" s="13"/>
-      <c r="ER28" s="13"/>
-      <c r="ES28" s="13"/>
-      <c r="ET28" s="13"/>
-      <c r="EU28" s="13"/>
-    </row>
-    <row r="29" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="1"/>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
-      <c r="BR29" s="1"/>
-      <c r="BS29" s="1"/>
-      <c r="BT29" s="1"/>
-      <c r="BU29" s="7"/>
-      <c r="BV29" s="1"/>
-      <c r="BW29" s="1"/>
-      <c r="BX29" s="1"/>
-      <c r="BY29" s="1"/>
-      <c r="BZ29" s="1"/>
-      <c r="CA29" s="1"/>
-      <c r="CB29" s="1"/>
-      <c r="CC29" s="1"/>
-      <c r="CD29" s="1"/>
-      <c r="CE29" s="1"/>
-      <c r="CF29" s="1"/>
-      <c r="CG29" s="1"/>
-      <c r="CH29" s="1"/>
-      <c r="CI29" s="1"/>
-      <c r="CJ29" s="1"/>
-      <c r="CK29" s="1"/>
-      <c r="CL29" s="1"/>
-      <c r="CM29" s="1"/>
-      <c r="CN29" s="1"/>
-      <c r="CO29" s="1"/>
-      <c r="CP29" s="1"/>
-      <c r="CQ29" s="1"/>
-      <c r="CR29" s="1"/>
-      <c r="CS29" s="1"/>
-      <c r="CT29" s="1"/>
-      <c r="CU29" s="1"/>
-      <c r="CV29" s="1"/>
-      <c r="CW29" s="1"/>
-      <c r="CX29" s="1"/>
-      <c r="CY29" s="1"/>
-      <c r="CZ29" s="5"/>
-      <c r="DA29" s="17"/>
-      <c r="DB29" s="13"/>
-      <c r="DC29" s="13"/>
-      <c r="DD29" s="13"/>
-      <c r="DE29" s="13"/>
-      <c r="DF29" s="13"/>
-      <c r="DG29" s="13"/>
-      <c r="DH29" s="13"/>
-      <c r="DI29" s="13"/>
-      <c r="DJ29" s="13"/>
-      <c r="DK29" s="13"/>
-      <c r="DL29" s="13"/>
-      <c r="DM29" s="13"/>
-      <c r="DN29" s="13"/>
-      <c r="DO29" s="13"/>
-      <c r="DP29" s="13"/>
-      <c r="DQ29" s="13"/>
-      <c r="DR29" s="13"/>
-      <c r="DS29" s="13"/>
-      <c r="DT29" s="13"/>
-      <c r="DU29" s="13"/>
-      <c r="DV29" s="13"/>
-      <c r="DW29" s="13"/>
-      <c r="DX29" s="13"/>
-      <c r="DY29" s="13"/>
-      <c r="DZ29" s="13"/>
-      <c r="EA29" s="13"/>
-      <c r="EB29" s="13"/>
-      <c r="EC29" s="13"/>
-      <c r="ED29" s="13"/>
-      <c r="EE29" s="13"/>
-      <c r="EF29" s="13"/>
-      <c r="EG29" s="13"/>
-      <c r="EH29" s="13"/>
-      <c r="EI29" s="13"/>
-      <c r="EJ29" s="13"/>
-      <c r="EK29" s="13"/>
-      <c r="EL29" s="13"/>
-      <c r="EM29" s="13"/>
-      <c r="EN29" s="13"/>
-      <c r="EO29" s="13"/>
-      <c r="EP29" s="13"/>
-      <c r="EQ29" s="13"/>
-      <c r="ER29" s="13"/>
-      <c r="ES29" s="13"/>
-      <c r="ET29" s="13"/>
-      <c r="EU29" s="13"/>
-    </row>
-    <row r="30" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="2"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="7"/>
-      <c r="BV30" s="1"/>
-      <c r="BW30" s="1"/>
-      <c r="BX30" s="1"/>
-      <c r="BY30" s="1"/>
-      <c r="BZ30" s="1"/>
-      <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
-      <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
-      <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
-      <c r="CG30" s="1"/>
-      <c r="CH30" s="1"/>
-      <c r="CI30" s="1"/>
-      <c r="CJ30" s="1"/>
-      <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
-      <c r="CT30" s="1"/>
-      <c r="CU30" s="1"/>
-      <c r="CV30" s="1"/>
-      <c r="CW30" s="1"/>
-      <c r="CX30" s="1"/>
-      <c r="CY30" s="1"/>
-      <c r="CZ30" s="5"/>
-      <c r="DA30" s="17"/>
-      <c r="DB30" s="13"/>
-      <c r="DC30" s="13"/>
-      <c r="DD30" s="13"/>
-      <c r="DE30" s="13"/>
-      <c r="DF30" s="13"/>
-      <c r="DG30" s="13"/>
-      <c r="DH30" s="13"/>
-      <c r="DI30" s="13"/>
-      <c r="DJ30" s="13"/>
-      <c r="DK30" s="13"/>
-      <c r="DL30" s="13"/>
-      <c r="DM30" s="13"/>
-      <c r="DN30" s="13"/>
-      <c r="DO30" s="13"/>
-      <c r="DP30" s="13"/>
-      <c r="DQ30" s="13"/>
-      <c r="DR30" s="13"/>
-      <c r="DS30" s="13"/>
-      <c r="DT30" s="13"/>
-      <c r="DU30" s="13"/>
-      <c r="DV30" s="13"/>
-      <c r="DW30" s="13"/>
-      <c r="DX30" s="13"/>
-      <c r="DY30" s="13"/>
-      <c r="DZ30" s="13"/>
-      <c r="EA30" s="13"/>
-      <c r="EB30" s="13"/>
-      <c r="EC30" s="13"/>
-      <c r="ED30" s="13"/>
-      <c r="EE30" s="13"/>
-      <c r="EF30" s="13"/>
-      <c r="EG30" s="13"/>
-      <c r="EH30" s="13"/>
-      <c r="EI30" s="13"/>
-      <c r="EJ30" s="13"/>
-      <c r="EK30" s="13"/>
-      <c r="EL30" s="13"/>
-      <c r="EM30" s="13"/>
-      <c r="EN30" s="13"/>
-      <c r="EO30" s="13"/>
-      <c r="EP30" s="13"/>
-      <c r="EQ30" s="13"/>
-      <c r="ER30" s="13"/>
-      <c r="ES30" s="13"/>
-      <c r="ET30" s="13"/>
-      <c r="EU30" s="13"/>
-    </row>
-    <row r="31" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="1"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="7"/>
-      <c r="BV31" s="1"/>
-      <c r="BW31" s="1"/>
-      <c r="BX31" s="1"/>
-      <c r="BY31" s="1"/>
-      <c r="BZ31" s="1"/>
-      <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
-      <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
-      <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
-      <c r="CI31" s="1"/>
-      <c r="CJ31" s="1"/>
-      <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
-      <c r="CT31" s="1"/>
-      <c r="CU31" s="1"/>
-      <c r="CV31" s="1"/>
-      <c r="CW31" s="1"/>
-      <c r="CX31" s="1"/>
-      <c r="CY31" s="1"/>
-      <c r="CZ31" s="5"/>
-      <c r="DA31" s="17"/>
-      <c r="DB31" s="13"/>
-      <c r="DC31" s="13"/>
-      <c r="DD31" s="13"/>
-      <c r="DE31" s="13"/>
-      <c r="DF31" s="13"/>
-      <c r="DG31" s="13"/>
-      <c r="DH31" s="13"/>
-      <c r="DI31" s="13"/>
-      <c r="DJ31" s="13"/>
-      <c r="DK31" s="13"/>
-      <c r="DL31" s="13"/>
-      <c r="DM31" s="13"/>
-      <c r="DN31" s="13"/>
-      <c r="DO31" s="13"/>
-      <c r="DP31" s="13"/>
-      <c r="DQ31" s="13"/>
-      <c r="DR31" s="13"/>
-      <c r="DS31" s="13"/>
-      <c r="DT31" s="13"/>
-      <c r="DU31" s="13"/>
-      <c r="DV31" s="13"/>
-      <c r="DW31" s="13"/>
-      <c r="DX31" s="13"/>
-      <c r="DY31" s="13"/>
-      <c r="DZ31" s="13"/>
-      <c r="EA31" s="13"/>
-      <c r="EB31" s="13"/>
-      <c r="EC31" s="13"/>
-      <c r="ED31" s="13"/>
-      <c r="EE31" s="13"/>
-      <c r="EF31" s="13"/>
-      <c r="EG31" s="13"/>
-      <c r="EH31" s="13"/>
-      <c r="EI31" s="13"/>
-      <c r="EJ31" s="13"/>
-      <c r="EK31" s="13"/>
-      <c r="EL31" s="13"/>
-      <c r="EM31" s="13"/>
-      <c r="EN31" s="13"/>
-      <c r="EO31" s="13"/>
-      <c r="EP31" s="13"/>
-      <c r="EQ31" s="13"/>
-      <c r="ER31" s="13"/>
-      <c r="ES31" s="13"/>
-      <c r="ET31" s="13"/>
-      <c r="EU31" s="13"/>
-    </row>
-    <row r="32" spans="12:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="2"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="2"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="1"/>
-      <c r="BR32" s="1"/>
-      <c r="BS32" s="1"/>
-      <c r="BT32" s="1"/>
-      <c r="BU32" s="7"/>
-      <c r="BV32" s="1"/>
-      <c r="BW32" s="1"/>
-      <c r="BX32" s="1"/>
-      <c r="BY32" s="1"/>
-      <c r="BZ32" s="1"/>
-      <c r="CA32" s="1"/>
-      <c r="CB32" s="1"/>
-      <c r="CC32" s="1"/>
-      <c r="CD32" s="1"/>
-      <c r="CE32" s="1"/>
-      <c r="CF32" s="1"/>
-      <c r="CG32" s="1"/>
-      <c r="CH32" s="1"/>
-      <c r="CI32" s="1"/>
-      <c r="CJ32" s="1"/>
-      <c r="CK32" s="1"/>
-      <c r="CL32" s="1"/>
-      <c r="CM32" s="1"/>
-      <c r="CN32" s="1"/>
-      <c r="CO32" s="1"/>
-      <c r="CP32" s="1"/>
-      <c r="CQ32" s="1"/>
-      <c r="CR32" s="1"/>
-      <c r="CS32" s="1"/>
-      <c r="CT32" s="1"/>
-      <c r="CU32" s="1"/>
-      <c r="CV32" s="1"/>
-      <c r="CW32" s="1"/>
-      <c r="CX32" s="1"/>
-      <c r="CY32" s="1"/>
-      <c r="CZ32" s="5"/>
-      <c r="DA32" s="18"/>
-      <c r="DB32" s="13"/>
-      <c r="DC32" s="13"/>
-      <c r="DD32" s="13"/>
-      <c r="DE32" s="13"/>
-      <c r="DF32" s="13"/>
-      <c r="DG32" s="13"/>
-      <c r="DH32" s="13"/>
-      <c r="DI32" s="13"/>
-      <c r="DJ32" s="13"/>
-      <c r="DK32" s="13"/>
-      <c r="DL32" s="13"/>
-      <c r="DM32" s="13"/>
-      <c r="DN32" s="13"/>
-      <c r="DO32" s="13"/>
-      <c r="DP32" s="13"/>
-      <c r="DQ32" s="13"/>
-      <c r="DR32" s="13"/>
-      <c r="DS32" s="13"/>
-      <c r="DT32" s="13"/>
-      <c r="DU32" s="13"/>
-      <c r="DV32" s="13"/>
-      <c r="DW32" s="13"/>
-      <c r="DX32" s="13"/>
-      <c r="DY32" s="13"/>
-      <c r="DZ32" s="13"/>
-      <c r="EA32" s="13"/>
-      <c r="EB32" s="13"/>
-      <c r="EC32" s="13"/>
-      <c r="ED32" s="13"/>
-      <c r="EE32" s="13"/>
-      <c r="EF32" s="13"/>
-      <c r="EG32" s="13"/>
-      <c r="EH32" s="13"/>
-      <c r="EI32" s="13"/>
-      <c r="EJ32" s="13"/>
-      <c r="EK32" s="13"/>
-      <c r="EL32" s="13"/>
-      <c r="EM32" s="13"/>
-      <c r="EN32" s="13"/>
-      <c r="EO32" s="13"/>
-      <c r="EP32" s="13"/>
-      <c r="EQ32" s="13"/>
-      <c r="ER32" s="13"/>
-      <c r="ES32" s="13"/>
-      <c r="ET32" s="13"/>
-      <c r="EU32" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="N12:AJ12"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="AR11:AW11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="AK12:BG12"/>
-    <mergeCell ref="BH12:CD12"/>
-    <mergeCell ref="CE12:DA12"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BO11:BT11"/>
-    <mergeCell ref="BU11:BW11"/>
-    <mergeCell ref="BX11:CD11"/>
-    <mergeCell ref="CE11:CK11"/>
-    <mergeCell ref="CL11:CQ11"/>
-    <mergeCell ref="CR11:CT11"/>
-    <mergeCell ref="CU11:DA11"/>
+  <mergeCells count="20">
+    <mergeCell ref="AW3:BS3"/>
+    <mergeCell ref="BT3:CP3"/>
+    <mergeCell ref="AW2:BC2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BS2"/>
+    <mergeCell ref="BT2:BZ2"/>
+    <mergeCell ref="CA2:CF2"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CP2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="Z3:AV3"/>
+    <mergeCell ref="C3:Y3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4979,22 +4855,22 @@
   <sheetData>
     <row r="1" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="4" spans="3:151" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5057,52 +4933,52 @@
         <v>51</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="AA10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AC10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="AD10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AF10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AG10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AH10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AI10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="AK10" s="11" t="s">
         <v>45</v>
@@ -5126,52 +5002,52 @@
         <v>51</v>
       </c>
       <c r="AR10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AS10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT10" s="11" t="s">
+      <c r="AU10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU10" s="11" t="s">
+      <c r="AV10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AV10" s="11" t="s">
+      <c r="AW10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AW10" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="AX10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AY10" s="11" t="s">
+      <c r="AZ10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AZ10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="BA10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="BB10" s="11" t="s">
+      <c r="BC10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BC10" s="11" t="s">
+      <c r="BD10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="BD10" s="11" t="s">
+      <c r="BE10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BE10" s="11" t="s">
+      <c r="BF10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BF10" s="11" t="s">
+      <c r="BG10" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="BG10" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="BH10" s="11" t="s">
         <v>45</v>
@@ -5195,52 +5071,52 @@
         <v>51</v>
       </c>
       <c r="BO10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BP10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BQ10" s="11" t="s">
+      <c r="BR10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BR10" s="11" t="s">
+      <c r="BS10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BS10" s="11" t="s">
+      <c r="BT10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BT10" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="BU10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BV10" s="11" t="s">
+      <c r="BW10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BW10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="BX10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="BY10" s="11" t="s">
+      <c r="BZ10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BZ10" s="11" t="s">
+      <c r="CA10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="CA10" s="11" t="s">
+      <c r="CB10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="CB10" s="11" t="s">
+      <c r="CC10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CC10" s="11" t="s">
+      <c r="CD10" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="CD10" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="CE10" s="11"/>
       <c r="CF10" s="11"/>
@@ -5268,99 +5144,99 @@
     </row>
     <row r="11" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M11" s="9"/>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="26" t="s">
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="52" t="s">
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="49"/>
+      <c r="BN11" s="50"/>
+      <c r="BO11" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP11" s="56"/>
-      <c r="BQ11" s="56"/>
-      <c r="BR11" s="56"/>
-      <c r="BS11" s="56"/>
-      <c r="BT11" s="57"/>
-      <c r="BU11" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV11" s="59"/>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="BY11" s="45"/>
-      <c r="BZ11" s="45"/>
-      <c r="CA11" s="45"/>
-      <c r="CB11" s="45"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="46"/>
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="53"/>
+      <c r="BU11" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV11" s="55"/>
+      <c r="BW11" s="56"/>
+      <c r="BX11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY11" s="58"/>
+      <c r="BZ11" s="58"/>
+      <c r="CA11" s="58"/>
+      <c r="CB11" s="58"/>
+      <c r="CC11" s="58"/>
+      <c r="CD11" s="59"/>
       <c r="CE11" s="47"/>
       <c r="CF11" s="47"/>
       <c r="CG11" s="47"/>
@@ -5374,9 +5250,9 @@
       <c r="CO11" s="47"/>
       <c r="CP11" s="47"/>
       <c r="CQ11" s="47"/>
-      <c r="CR11" s="48"/>
-      <c r="CS11" s="48"/>
-      <c r="CT11" s="48"/>
+      <c r="CR11" s="60"/>
+      <c r="CS11" s="60"/>
+      <c r="CT11" s="60"/>
       <c r="CU11" s="47"/>
       <c r="CV11" s="47"/>
       <c r="CW11" s="47"/>
@@ -5387,79 +5263,79 @@
     </row>
     <row r="12" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M12" s="15"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="22" t="s">
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="23"/>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="23"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="23"/>
-      <c r="BH12" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="50"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="50"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="50"/>
-      <c r="BU12" s="50"/>
-      <c r="BV12" s="50"/>
-      <c r="BW12" s="50"/>
-      <c r="BX12" s="50"/>
-      <c r="BY12" s="50"/>
-      <c r="BZ12" s="50"/>
-      <c r="CA12" s="50"/>
-      <c r="CB12" s="50"/>
-      <c r="CC12" s="50"/>
-      <c r="CD12" s="51"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="45"/>
+      <c r="BL12" s="45"/>
+      <c r="BM12" s="45"/>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="45"/>
+      <c r="BQ12" s="45"/>
+      <c r="BR12" s="45"/>
+      <c r="BS12" s="45"/>
+      <c r="BT12" s="45"/>
+      <c r="BU12" s="45"/>
+      <c r="BV12" s="45"/>
+      <c r="BW12" s="45"/>
+      <c r="BX12" s="45"/>
+      <c r="BY12" s="45"/>
+      <c r="BZ12" s="45"/>
+      <c r="CA12" s="45"/>
+      <c r="CB12" s="45"/>
+      <c r="CC12" s="45"/>
+      <c r="CD12" s="46"/>
       <c r="CE12" s="47"/>
       <c r="CF12" s="47"/>
       <c r="CG12" s="47"/>
@@ -5779,7 +5655,7 @@
     </row>
     <row r="15" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>4</v>
@@ -8209,11 +8085,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AJ11"/>
     <mergeCell ref="N12:AJ12"/>
     <mergeCell ref="AK12:BG12"/>
     <mergeCell ref="BH12:CD12"/>
@@ -8230,6 +8101,11 @@
     <mergeCell ref="CL11:CQ11"/>
     <mergeCell ref="CR11:CT11"/>
     <mergeCell ref="CU11:DA11"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AJ11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48602ECA-85DF-44BE-AC16-FC6E98BB717B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C73561-EC19-434C-837C-6B6F4E1E8011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -774,22 +774,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,16 +822,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,6 +882,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1370,7 +1371,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="AW3" sqref="AW3:BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1660,231 +1661,231 @@
     </row>
     <row r="2" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="28" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="28" t="s">
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="31" t="s">
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="34" t="s">
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="37" t="s">
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="28" t="s">
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="31" t="s">
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="27"/>
+      <c r="BW2" s="27"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="34" t="s">
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="CH2" s="35"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="37" t="s">
+      <c r="CH2" s="33"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="CK2" s="38"/>
-      <c r="CL2" s="38"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="38"/>
-      <c r="CO2" s="38"/>
-      <c r="CP2" s="39"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="37"/>
     </row>
     <row r="3" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="40" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="40" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="40" t="s">
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
-      <c r="CG3" s="41"/>
-      <c r="CH3" s="41"/>
-      <c r="CI3" s="41"/>
-      <c r="CJ3" s="41"/>
-      <c r="CK3" s="41"/>
-      <c r="CL3" s="41"/>
-      <c r="CM3" s="41"/>
-      <c r="CN3" s="41"/>
-      <c r="CO3" s="41"/>
-      <c r="CP3" s="43"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
+      <c r="CH3" s="23"/>
+      <c r="CI3" s="23"/>
+      <c r="CJ3" s="23"/>
+      <c r="CK3" s="23"/>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
+      <c r="CP3" s="25"/>
     </row>
     <row r="4" spans="1:140" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
@@ -2200,7 +2201,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="61"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -4808,6 +4809,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C3:Y3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="Z3:AV3"/>
     <mergeCell ref="AW3:BS3"/>
     <mergeCell ref="BT3:CP3"/>
     <mergeCell ref="AW2:BC2"/>
@@ -4818,16 +4829,6 @@
     <mergeCell ref="CA2:CF2"/>
     <mergeCell ref="CG2:CI2"/>
     <mergeCell ref="CJ2:CP2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="Z3:AV3"/>
-    <mergeCell ref="C3:Y3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4855,18 +4856,18 @@
   <sheetData>
     <row r="1" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="4" spans="3:151" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -5144,221 +5145,221 @@
     </row>
     <row r="11" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M11" s="9"/>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31" t="s">
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34" t="s">
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37" t="s">
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="28" t="s">
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="31" t="s">
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="34" t="s">
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="37" t="s">
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="48" t="s">
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="BI11" s="49"/>
-      <c r="BJ11" s="49"/>
-      <c r="BK11" s="49"/>
-      <c r="BL11" s="49"/>
-      <c r="BM11" s="49"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="51" t="s">
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="53"/>
-      <c r="BU11" s="54" t="s">
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="49"/>
+      <c r="BR11" s="49"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="50"/>
+      <c r="BU11" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="BV11" s="55"/>
-      <c r="BW11" s="56"/>
-      <c r="BX11" s="57" t="s">
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="53"/>
+      <c r="BX11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="BY11" s="58"/>
-      <c r="BZ11" s="58"/>
-      <c r="CA11" s="58"/>
-      <c r="CB11" s="58"/>
-      <c r="CC11" s="58"/>
-      <c r="CD11" s="59"/>
-      <c r="CE11" s="47"/>
-      <c r="CF11" s="47"/>
-      <c r="CG11" s="47"/>
-      <c r="CH11" s="47"/>
-      <c r="CI11" s="47"/>
-      <c r="CJ11" s="47"/>
-      <c r="CK11" s="47"/>
-      <c r="CL11" s="47"/>
-      <c r="CM11" s="47"/>
-      <c r="CN11" s="47"/>
-      <c r="CO11" s="47"/>
-      <c r="CP11" s="47"/>
-      <c r="CQ11" s="47"/>
-      <c r="CR11" s="60"/>
-      <c r="CS11" s="60"/>
-      <c r="CT11" s="60"/>
-      <c r="CU11" s="47"/>
-      <c r="CV11" s="47"/>
-      <c r="CW11" s="47"/>
-      <c r="CX11" s="47"/>
-      <c r="CY11" s="47"/>
-      <c r="CZ11" s="47"/>
-      <c r="DA11" s="47"/>
+      <c r="BY11" s="55"/>
+      <c r="BZ11" s="55"/>
+      <c r="CA11" s="55"/>
+      <c r="CB11" s="55"/>
+      <c r="CC11" s="55"/>
+      <c r="CD11" s="56"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="44"/>
+      <c r="CG11" s="44"/>
+      <c r="CH11" s="44"/>
+      <c r="CI11" s="44"/>
+      <c r="CJ11" s="44"/>
+      <c r="CK11" s="44"/>
+      <c r="CL11" s="44"/>
+      <c r="CM11" s="44"/>
+      <c r="CN11" s="44"/>
+      <c r="CO11" s="44"/>
+      <c r="CP11" s="44"/>
+      <c r="CQ11" s="44"/>
+      <c r="CR11" s="57"/>
+      <c r="CS11" s="57"/>
+      <c r="CT11" s="57"/>
+      <c r="CU11" s="44"/>
+      <c r="CV11" s="44"/>
+      <c r="CW11" s="44"/>
+      <c r="CX11" s="44"/>
+      <c r="CY11" s="44"/>
+      <c r="CZ11" s="44"/>
+      <c r="DA11" s="44"/>
     </row>
     <row r="12" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M12" s="15"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="40" t="s">
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="44" t="s">
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="45"/>
-      <c r="BR12" s="45"/>
-      <c r="BS12" s="45"/>
-      <c r="BT12" s="45"/>
-      <c r="BU12" s="45"/>
-      <c r="BV12" s="45"/>
-      <c r="BW12" s="45"/>
-      <c r="BX12" s="45"/>
-      <c r="BY12" s="45"/>
-      <c r="BZ12" s="45"/>
-      <c r="CA12" s="45"/>
-      <c r="CB12" s="45"/>
-      <c r="CC12" s="45"/>
-      <c r="CD12" s="46"/>
-      <c r="CE12" s="47"/>
-      <c r="CF12" s="47"/>
-      <c r="CG12" s="47"/>
-      <c r="CH12" s="47"/>
-      <c r="CI12" s="47"/>
-      <c r="CJ12" s="47"/>
-      <c r="CK12" s="47"/>
-      <c r="CL12" s="47"/>
-      <c r="CM12" s="47"/>
-      <c r="CN12" s="47"/>
-      <c r="CO12" s="47"/>
-      <c r="CP12" s="47"/>
-      <c r="CQ12" s="47"/>
-      <c r="CR12" s="47"/>
-      <c r="CS12" s="47"/>
-      <c r="CT12" s="47"/>
-      <c r="CU12" s="47"/>
-      <c r="CV12" s="47"/>
-      <c r="CW12" s="47"/>
-      <c r="CX12" s="47"/>
-      <c r="CY12" s="47"/>
-      <c r="CZ12" s="47"/>
-      <c r="DA12" s="47"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="42"/>
+      <c r="BT12" s="42"/>
+      <c r="BU12" s="42"/>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="42"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="43"/>
+      <c r="CE12" s="44"/>
+      <c r="CF12" s="44"/>
+      <c r="CG12" s="44"/>
+      <c r="CH12" s="44"/>
+      <c r="CI12" s="44"/>
+      <c r="CJ12" s="44"/>
+      <c r="CK12" s="44"/>
+      <c r="CL12" s="44"/>
+      <c r="CM12" s="44"/>
+      <c r="CN12" s="44"/>
+      <c r="CO12" s="44"/>
+      <c r="CP12" s="44"/>
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="44"/>
+      <c r="CS12" s="44"/>
+      <c r="CT12" s="44"/>
+      <c r="CU12" s="44"/>
+      <c r="CV12" s="44"/>
+      <c r="CW12" s="44"/>
+      <c r="CX12" s="44"/>
+      <c r="CY12" s="44"/>
+      <c r="CZ12" s="44"/>
+      <c r="DA12" s="44"/>
     </row>
     <row r="13" spans="3:151" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="14"/>
@@ -8085,6 +8086,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AJ11"/>
     <mergeCell ref="N12:AJ12"/>
     <mergeCell ref="AK12:BG12"/>
     <mergeCell ref="BH12:CD12"/>
@@ -8101,11 +8107,6 @@
     <mergeCell ref="CL11:CQ11"/>
     <mergeCell ref="CR11:CT11"/>
     <mergeCell ref="CU11:DA11"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AJ11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
